--- a/keyword tracking/Keyword_Tracker_WarbyParker.xlsx
+++ b/keyword tracking/Keyword_Tracker_WarbyParker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Web Development\Semester 3\Web Traffic &amp; SEO\Project-3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Web Development\Semester 3\Web Traffic &amp; SEO\Project-3\Warby-Parker\keyword tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3112CEB8-9970-4855-B444-C8375A103854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691F5E08-B26A-462F-AAE5-D915D3B2EA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>Keyword</t>
   </si>
@@ -34,12 +34,6 @@
     <t>prescription eyeglasses</t>
   </si>
   <si>
-    <t>stylish eyeglasses</t>
-  </si>
-  <si>
-    <t>affordable glasses</t>
-  </si>
-  <si>
     <t>eyewear</t>
   </si>
   <si>
@@ -67,33 +61,15 @@
     <t>contact lenses online</t>
   </si>
   <si>
-    <t>Acuvue lenses</t>
-  </si>
-  <si>
     <t>eye exam near me</t>
   </si>
   <si>
     <t>vision care tips</t>
   </si>
   <si>
-    <t>digital strain prevention</t>
-  </si>
-  <si>
     <t>United States</t>
   </si>
   <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
     <t>Transactional</t>
   </si>
   <si>
@@ -101,6 +77,15 @@
   </si>
   <si>
     <t>Navigational</t>
+  </si>
+  <si>
+    <t>stylish sunglasses</t>
+  </si>
+  <si>
+    <t>Acuvue Oasys</t>
+  </si>
+  <si>
+    <t>United States, Canada</t>
   </si>
 </sst>
 </file>
@@ -468,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,175 +482,153 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
         <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
